--- a/database/products.xlsx
+++ b/database/products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1111</v>
+        <v>5423</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -465,10 +465,42 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5424</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Kanapka</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3123</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Zeszyt A4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>9</v>
+      <c r="D4" t="n">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
